--- a/Data/2012 STOP Summary.xlsx
+++ b/Data/2012 STOP Summary.xlsx
@@ -4741,7 +4741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E97" sqref="E97:E98"/>
@@ -29471,7 +29471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2106"/>
+  <dimension ref="A1:O2106"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C68" sqref="C68:L68"/>
@@ -36473,7 +36473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C69" sqref="C69:I69"/>
@@ -39939,7 +39939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T199"/>
+  <dimension ref="A1:Q199"/>
   <sheetViews>
     <sheetView topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C75" sqref="C75:P75"/>
@@ -44688,7 +44688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T199"/>
+  <dimension ref="A1:Q199"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C74" sqref="C74:O74"/>
@@ -49434,7 +49434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N199"/>
+  <dimension ref="A1:K199"/>
   <sheetViews>
     <sheetView topLeftCell="A64" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C72" sqref="C72:J72"/>
@@ -52596,7 +52596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C74" sqref="C74:H74"/>

--- a/Data/2012 STOP Summary.xlsx
+++ b/Data/2012 STOP Summary.xlsx
@@ -4741,7 +4741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E97" sqref="E97:E98"/>
@@ -6887,106 +6887,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102"/>
     <row r="103">
       <c r="A103" s="387" t="n"/>
     </row>
     <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A1:B2"/>
@@ -7026,7 +6930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BZ13"/>
+  <dimension ref="A1:BZ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9858,37 +9762,231 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Inter-Mountain Fair of Shasta County 
-FY 11/12</t>
-        </is>
+          <t>Trinity County Fair</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>377070.04</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1137812.18</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
+        <v>1514882.22</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>18464.42</v>
+      </c>
+      <c r="H12" t="n">
+        <v>26010.56</v>
+      </c>
+      <c r="I12" t="n">
+        <v>22927</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5225</v>
+      </c>
+      <c r="K12" t="n">
+        <v>23873</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10490</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1408</v>
+      </c>
+      <c r="N12" t="n">
+        <v>25232</v>
+      </c>
+      <c r="O12" t="n">
+        <v>14765</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>11123</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>121786</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>825</v>
+      </c>
+      <c r="W12" t="n">
+        <v>115277</v>
+      </c>
+      <c r="X12" t="n">
+        <v>110458</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>4260</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6331</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3936</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6320</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11772</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1074</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>18602</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1670</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>105</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>414</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>280230</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>67144</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>-254219.44</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>360503.15</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1089132.5</v>
       </c>
       <c r="AT12" t="n">
+        <v>1449635.65</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1.286454519501838</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>378051.84</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>11128.17</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>106531.75</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>1993645.19</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>-1011044.44</v>
+      </c>
+      <c r="BG12" t="n">
         <v>0</v>
       </c>
       <c r="BH12" t="n">
+        <v>1478312.51</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>-35</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>265.46</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1193.06</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>8855.65</v>
+      </c>
+      <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>10279.17</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>18396.45</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>360503.15</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>1089132.5</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>2</v>
       </c>
       <c r="BW12" t="n">
-        <v>0</v>
+        <v>1478313.27</v>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>565 friends</t>
+          <t>183/1</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
@@ -9896,248 +9994,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="BZ12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Trinity County Fair</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>377070.04</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1137812.18</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1514882.22</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>18464.42</v>
-      </c>
-      <c r="H13" t="n">
-        <v>26010.56</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22927</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5225</v>
-      </c>
-      <c r="K13" t="n">
-        <v>23873</v>
-      </c>
-      <c r="L13" t="n">
-        <v>10490</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1408</v>
-      </c>
-      <c r="N13" t="n">
-        <v>25232</v>
-      </c>
-      <c r="O13" t="n">
-        <v>14765</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>11123</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>121786</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>825</v>
-      </c>
-      <c r="W13" t="n">
-        <v>115277</v>
-      </c>
-      <c r="X13" t="n">
-        <v>110458</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>4260</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>6331</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>3936</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>6320</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11772</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1074</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>18602</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1670</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>105</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>414</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>280230</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>67144</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>-254219.44</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>360503.15</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>1089132.5</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>1449635.65</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>1.286454519501838</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>378051.84</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>11128.17</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>106531.75</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>1993645.19</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>-1011044.44</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>1478312.51</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>-35</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>265.46</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>1193.06</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>8855.65</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>10279.17</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>18396.45</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>360503.15</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>1089132.5</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>1478313.27</v>
-      </c>
-      <c r="BX13" t="inlineStr">
-        <is>
-          <t>183/1</t>
-        </is>
-      </c>
-      <c r="BY13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="BZ13" t="n">
+      <c r="BZ12" t="n">
         <v>28</v>
       </c>
     </row>
@@ -10152,7 +10009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BZ11"/>
+  <dimension ref="A1:BZ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12486,37 +12343,234 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Plumas-Sierra County Fair 
-FY 11/12</t>
-        </is>
+          <t>San Benito Saddle Horse Show, Rodeo, &amp; Fair</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>92253</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>92253</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>72793</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>416</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2455</v>
+      </c>
+      <c r="N10" t="n">
+        <v>29460</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7789</v>
+      </c>
+      <c r="R10" t="n">
+        <v>12704</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1998</v>
+      </c>
+      <c r="U10" t="n">
+        <v>28540</v>
       </c>
       <c r="V10" t="n">
+        <v>156155</v>
+      </c>
+      <c r="W10" t="n">
+        <v>36029</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8745</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12407</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>3100</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>18874</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>17855</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>9086</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>7560</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>27388</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2692</v>
+      </c>
+      <c r="AL10" t="n">
         <v>0</v>
       </c>
       <c r="AM10" t="n">
+        <v>143736</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
         <v>0</v>
       </c>
       <c r="AP10" t="n">
+        <v>12419</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>104671</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
         <v>0</v>
       </c>
       <c r="AT10" t="n">
+        <v>104671</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.7282170089608727</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>104791</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>5500</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>-5500</v>
+      </c>
+      <c r="BG10" t="n">
         <v>0</v>
       </c>
       <c r="BH10" t="n">
+        <v>104791</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>120</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
+        <v>120</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>104671</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
         <v>0</v>
       </c>
       <c r="BW10" t="n">
-        <v>0</v>
+        <v>104791</v>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1,012/2,576</t>
+          <t>570/323</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
@@ -12525,250 +12579,6 @@
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>San Benito Saddle Horse Show, Rodeo, &amp; Fair</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>92253</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>92253</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>72793</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>416</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2455</v>
-      </c>
-      <c r="N11" t="n">
-        <v>29460</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>7789</v>
-      </c>
-      <c r="R11" t="n">
-        <v>12704</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1998</v>
-      </c>
-      <c r="U11" t="n">
-        <v>28540</v>
-      </c>
-      <c r="V11" t="n">
-        <v>156155</v>
-      </c>
-      <c r="W11" t="n">
-        <v>36029</v>
-      </c>
-      <c r="X11" t="n">
-        <v>8745</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>12407</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>3100</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>18874</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>17855</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>9086</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>7560</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>27388</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>2692</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>143736</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>12419</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>104671</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>104671</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0.7282170089608727</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>104791</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>5500</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>-5500</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>104791</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>120</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>120</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>104671</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>104791</v>
-      </c>
-      <c r="BX11" t="inlineStr">
-        <is>
-          <t>570/323</t>
-        </is>
-      </c>
-      <c r="BY11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="BZ11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -12785,7 +12595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD15"/>
+  <dimension ref="A1:CD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14480,61 +14290,271 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20th DAA,    Gold Country Fair</t>
-        </is>
+          <t>24-A DAA,    Kings Fair</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>342822</v>
       </c>
       <c r="E7" t="n">
+        <v>342822</v>
+      </c>
+      <c r="F7" t="n">
+        <v>148500</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>135933</v>
+      </c>
+      <c r="J7" t="n">
+        <v>30751</v>
+      </c>
+      <c r="K7" t="n">
+        <v>122069</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7745</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>103092</v>
+      </c>
+      <c r="T7" t="n">
+        <v>19354</v>
+      </c>
+      <c r="U7" t="n">
+        <v>183211</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
+        <v>622155</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>175251</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>302994</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>43648</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41535</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>24669</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1135</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>4890</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>20671</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>115944</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5806</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>241</v>
+      </c>
+      <c r="AP7" t="n">
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>736784</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>57129</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>33871</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>376693</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1053025</v>
       </c>
       <c r="AX7" t="n">
+        <v>1429718</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.5112665313036113</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>492535.86</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>44982.55</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>3739.06</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>45707</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>2172377.13</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>270058.75</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>-1435118.37</v>
+      </c>
+      <c r="BK7" t="n">
         <v>0</v>
       </c>
       <c r="BL7" t="n">
+        <v>1594281.98</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>63574.89</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>487.58</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>5180</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>5500</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>43992.44</v>
+      </c>
+      <c r="BT7" t="n">
         <v>0</v>
       </c>
       <c r="BU7" t="n">
+        <v>118734.91</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>45829.2</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>376693</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>1053024.51</v>
+      </c>
+      <c r="BZ7" t="n">
         <v>0</v>
       </c>
       <c r="CA7" t="n">
-        <v>0</v>
+        <v>1594281.62</v>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1,312/3,252</t>
+          <t>336 friends</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
         <is>
-          <t>247/373</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="CD7" t="n">
-        <v>5</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>24-A DAA,    Kings Fair</t>
+          <t>26th DAA, Amador County Fair</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>342822</v>
+        <v>126384</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1111786</v>
       </c>
       <c r="E8" t="n">
-        <v>342822</v>
+        <v>1238170</v>
       </c>
       <c r="F8" t="n">
-        <v>148500</v>
+        <v>66000</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -14543,19 +14563,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>135933</v>
+        <v>145503</v>
       </c>
       <c r="J8" t="n">
-        <v>30751</v>
+        <v>36600</v>
       </c>
       <c r="K8" t="n">
-        <v>122069</v>
+        <v>112351</v>
       </c>
       <c r="L8" t="n">
-        <v>7745</v>
+        <v>37150</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>23506</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -14564,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>72027</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -14573,49 +14593,49 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103092</v>
+        <v>164460</v>
       </c>
       <c r="T8" t="n">
-        <v>19354</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>183211</v>
+        <v>103125</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>7619</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>24609</v>
       </c>
       <c r="X8" t="n">
-        <v>622155</v>
+        <v>726950</v>
       </c>
       <c r="Y8" t="n">
-        <v>175251</v>
+        <v>198655</v>
       </c>
       <c r="Z8" t="n">
-        <v>302994</v>
+        <v>222300</v>
       </c>
       <c r="AA8" t="n">
-        <v>43648</v>
+        <v>47903</v>
       </c>
       <c r="AB8" t="n">
-        <v>41535</v>
+        <v>60735</v>
       </c>
       <c r="AC8" t="n">
-        <v>24669</v>
+        <v>22759</v>
       </c>
       <c r="AD8" t="n">
-        <v>1135</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>4890</v>
+        <v>21486</v>
       </c>
       <c r="AF8" t="n">
-        <v>20671</v>
+        <v>37129</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>22264</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -14624,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>115944</v>
+        <v>82209</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
@@ -14636,52 +14656,52 @@
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>5806</v>
+        <v>-21692</v>
       </c>
       <c r="AO8" t="n">
-        <v>241</v>
+        <v>-64</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>736784</v>
+        <v>693684</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>57129</v>
+        <v>71624</v>
       </c>
       <c r="AT8" t="n">
-        <v>33871</v>
+        <v>99266</v>
       </c>
       <c r="AU8" t="n">
-        <v>376693</v>
+        <v>197312</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>1053025</v>
+        <v>1068499</v>
       </c>
       <c r="AX8" t="n">
-        <v>1429718</v>
+        <v>1265811</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.5112665313036113</v>
+        <v>0.2844407540032637</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>492535.86</v>
+        <v>292742</v>
       </c>
       <c r="BB8" t="n">
-        <v>44982.55</v>
+        <v>38598</v>
       </c>
       <c r="BC8" t="n">
-        <v>3739.06</v>
+        <v>4137</v>
       </c>
       <c r="BD8" t="n">
         <v>0</v>
@@ -14690,126 +14710,126 @@
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>45707</v>
+        <v>9764</v>
       </c>
       <c r="BG8" t="n">
-        <v>2172377.13</v>
+        <v>2937850</v>
       </c>
       <c r="BH8" t="n">
-        <v>270058.75</v>
+        <v>72934</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>259429</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-1435118.37</v>
+        <v>-2092777</v>
       </c>
       <c r="BK8" t="n">
         <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>1594281.98</v>
+        <v>1522677</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="BN8" t="n">
-        <v>63574.89</v>
+        <v>68559</v>
       </c>
       <c r="BO8" t="n">
-        <v>487.58</v>
+        <v>-84</v>
       </c>
       <c r="BP8" t="n">
-        <v>5180</v>
+        <v>1332</v>
       </c>
       <c r="BQ8" t="n">
         <v>0</v>
       </c>
       <c r="BR8" t="n">
-        <v>5500</v>
+        <v>1600</v>
       </c>
       <c r="BS8" t="n">
-        <v>43992.44</v>
+        <v>28497</v>
       </c>
       <c r="BT8" t="n">
-        <v>0</v>
+        <v>118700</v>
       </c>
       <c r="BU8" t="n">
-        <v>118734.91</v>
+        <v>218980</v>
       </c>
       <c r="BV8" t="n">
-        <v>45829.2</v>
+        <v>37885</v>
       </c>
       <c r="BW8" t="n">
-        <v>376693</v>
+        <v>197312</v>
       </c>
       <c r="BX8" t="n">
         <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>1053024.51</v>
+        <v>1068499</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA8" t="n">
-        <v>1594281.62</v>
+        <v>1522677</v>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>336 friends</t>
+          <t>3,375/5,934</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9/145</t>
         </is>
       </c>
       <c r="CD8" t="n">
-        <v>245</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>26th DAA, Amador County Fair</t>
+          <t>30th DAA, Tehama District Fair</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>126384</v>
+        <v>60531</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1111786</v>
+        <v>1627639</v>
       </c>
       <c r="E9" t="n">
-        <v>1238170</v>
+        <v>1688170</v>
       </c>
       <c r="F9" t="n">
-        <v>66000</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>5829</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I9" t="n">
-        <v>145503</v>
+        <v>98775</v>
       </c>
       <c r="J9" t="n">
-        <v>36600</v>
+        <v>2275</v>
       </c>
       <c r="K9" t="n">
-        <v>112351</v>
+        <v>118053</v>
       </c>
       <c r="L9" t="n">
-        <v>37150</v>
+        <v>16016</v>
       </c>
       <c r="M9" t="n">
-        <v>23506</v>
+        <v>3885</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -14818,7 +14838,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>72027</v>
+        <v>1940</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -14827,49 +14847,49 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>164460</v>
+        <v>77957</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>103125</v>
+        <v>401662</v>
       </c>
       <c r="V9" t="n">
-        <v>7619</v>
+        <v>754</v>
       </c>
       <c r="W9" t="n">
-        <v>24609</v>
+        <v>10633</v>
       </c>
       <c r="X9" t="n">
-        <v>726950</v>
+        <v>731950</v>
       </c>
       <c r="Y9" t="n">
-        <v>198655</v>
+        <v>334510</v>
       </c>
       <c r="Z9" t="n">
-        <v>222300</v>
+        <v>315958</v>
       </c>
       <c r="AA9" t="n">
-        <v>47903</v>
+        <v>20762</v>
       </c>
       <c r="AB9" t="n">
-        <v>60735</v>
+        <v>18796</v>
       </c>
       <c r="AC9" t="n">
-        <v>22759</v>
+        <v>19438</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>21486</v>
+        <v>12438</v>
       </c>
       <c r="AF9" t="n">
-        <v>37129</v>
+        <v>21929</v>
       </c>
       <c r="AG9" t="n">
-        <v>22264</v>
+        <v>4397</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -14878,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>82209</v>
+        <v>57442</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
@@ -14887,183 +14907,183 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>2427</v>
       </c>
       <c r="AN9" t="n">
-        <v>-21692</v>
+        <v>8980</v>
       </c>
       <c r="AO9" t="n">
-        <v>-64</v>
+        <v>184</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>693684</v>
+        <v>817261</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>71624</v>
+        <v>103260</v>
       </c>
       <c r="AT9" t="n">
-        <v>99266</v>
+        <v>14689</v>
       </c>
       <c r="AU9" t="n">
-        <v>197312</v>
+        <v>62006</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>1068499</v>
+        <v>1543422</v>
       </c>
       <c r="AX9" t="n">
-        <v>1265811</v>
+        <v>1605428</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.2844407540032637</v>
+        <v>0.07587049914286868</v>
       </c>
       <c r="AZ9" t="n">
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>292742</v>
+        <v>482515</v>
       </c>
       <c r="BB9" t="n">
-        <v>38598</v>
+        <v>2378.6</v>
       </c>
       <c r="BC9" t="n">
-        <v>4137</v>
+        <v>4197.4</v>
       </c>
       <c r="BD9" t="n">
         <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>0</v>
+        <v>4257</v>
       </c>
       <c r="BF9" t="n">
-        <v>9764</v>
+        <v>5000</v>
       </c>
       <c r="BG9" t="n">
-        <v>2937850</v>
+        <v>0</v>
       </c>
       <c r="BH9" t="n">
-        <v>72934</v>
+        <v>139008.95</v>
       </c>
       <c r="BI9" t="n">
-        <v>259429</v>
+        <v>4705624.48</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-2092777</v>
+        <v>-3101970.57</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>1522677</v>
+        <v>2241010.860000001</v>
       </c>
       <c r="BM9" t="n">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="BN9" t="n">
-        <v>68559</v>
+        <v>29347.79</v>
       </c>
       <c r="BO9" t="n">
-        <v>-84</v>
+        <v>4652.78</v>
       </c>
       <c r="BP9" t="n">
-        <v>1332</v>
+        <v>218760.26</v>
       </c>
       <c r="BQ9" t="n">
         <v>0</v>
       </c>
       <c r="BR9" t="n">
-        <v>1600</v>
+        <v>8310.879999999999</v>
       </c>
       <c r="BS9" t="n">
-        <v>28497</v>
+        <v>166013.63</v>
       </c>
       <c r="BT9" t="n">
-        <v>118700</v>
+        <v>208498.5</v>
       </c>
       <c r="BU9" t="n">
-        <v>218980</v>
+        <v>635583.8400000001</v>
       </c>
       <c r="BV9" t="n">
-        <v>37885</v>
+        <v>0</v>
       </c>
       <c r="BW9" t="n">
-        <v>197312</v>
+        <v>62005.66</v>
       </c>
       <c r="BX9" t="n">
         <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>1068499</v>
+        <v>1543421.58</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA9" t="n">
-        <v>1522677</v>
+        <v>2241011.08</v>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>3,375/5,934</t>
+          <t>1,169/6,486</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
         <is>
-          <t>9/145</t>
+          <t>94/1,503</t>
         </is>
       </c>
       <c r="CD9" t="n">
-        <v>285</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30th DAA, Tehama District Fair</t>
+          <t>39th DAA, Calaveras County Fair</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60531</v>
+        <v>-52639</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1627639</v>
+        <v>1017282</v>
       </c>
       <c r="E10" t="n">
-        <v>1688170</v>
+        <v>964643</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5829</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98775</v>
+        <v>161743</v>
       </c>
       <c r="J10" t="n">
-        <v>2275</v>
+        <v>60253</v>
       </c>
       <c r="K10" t="n">
-        <v>118053</v>
+        <v>111722</v>
       </c>
       <c r="L10" t="n">
-        <v>16016</v>
+        <v>32671</v>
       </c>
       <c r="M10" t="n">
-        <v>3885</v>
+        <v>1573</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -15072,7 +15092,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1940</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -15081,49 +15101,49 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>77957</v>
+        <v>136067</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>401662</v>
+        <v>117545</v>
       </c>
       <c r="V10" t="n">
-        <v>754</v>
+        <v>4183</v>
       </c>
       <c r="W10" t="n">
-        <v>10633</v>
+        <v>9553</v>
       </c>
       <c r="X10" t="n">
-        <v>731950</v>
+        <v>635310</v>
       </c>
       <c r="Y10" t="n">
-        <v>334510</v>
+        <v>190894</v>
       </c>
       <c r="Z10" t="n">
-        <v>315958</v>
+        <v>154242</v>
       </c>
       <c r="AA10" t="n">
-        <v>20762</v>
+        <v>30917</v>
       </c>
       <c r="AB10" t="n">
-        <v>18796</v>
+        <v>52181</v>
       </c>
       <c r="AC10" t="n">
-        <v>19438</v>
+        <v>1712</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1751</v>
       </c>
       <c r="AE10" t="n">
-        <v>12438</v>
+        <v>9965</v>
       </c>
       <c r="AF10" t="n">
-        <v>21929</v>
+        <v>22330</v>
       </c>
       <c r="AG10" t="n">
-        <v>4397</v>
+        <v>10808</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -15132,7 +15152,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>57442</v>
+        <v>67467</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
@@ -15141,159 +15161,159 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>2427</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>8980</v>
+        <v>-2354</v>
       </c>
       <c r="AO10" t="n">
-        <v>184</v>
+        <v>-261</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>817261</v>
+        <v>539652</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>103260</v>
+        <v>65363</v>
       </c>
       <c r="AT10" t="n">
-        <v>14689</v>
+        <v>95658</v>
       </c>
       <c r="AU10" t="n">
-        <v>62006</v>
+        <v>35817</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>1543422</v>
+        <v>959120</v>
       </c>
       <c r="AX10" t="n">
-        <v>1605428</v>
+        <v>994937</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.07587049914286868</v>
+        <v>0.06637054990994196</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="BA10" t="n">
-        <v>482515</v>
+        <v>118959</v>
       </c>
       <c r="BB10" t="n">
-        <v>2378.6</v>
+        <v>36791</v>
       </c>
       <c r="BC10" t="n">
-        <v>4197.4</v>
+        <v>5947</v>
       </c>
       <c r="BD10" t="n">
         <v>0</v>
       </c>
       <c r="BE10" t="n">
-        <v>4257</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>5000</v>
+        <v>71698</v>
       </c>
       <c r="BG10" t="n">
-        <v>0</v>
+        <v>3309299</v>
       </c>
       <c r="BH10" t="n">
-        <v>139008.95</v>
+        <v>140843</v>
       </c>
       <c r="BI10" t="n">
-        <v>4705624.48</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-3101970.57</v>
+        <v>-2562719</v>
       </c>
       <c r="BK10" t="n">
         <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>2241010.860000001</v>
+        <v>1121084</v>
       </c>
       <c r="BM10" t="n">
         <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>29347.79</v>
+        <v>63646</v>
       </c>
       <c r="BO10" t="n">
-        <v>4652.78</v>
+        <v>751</v>
       </c>
       <c r="BP10" t="n">
-        <v>218760.26</v>
+        <v>11669</v>
       </c>
       <c r="BQ10" t="n">
         <v>0</v>
       </c>
       <c r="BR10" t="n">
-        <v>8310.879999999999</v>
+        <v>2000</v>
       </c>
       <c r="BS10" t="n">
-        <v>166013.63</v>
+        <v>12613</v>
       </c>
       <c r="BT10" t="n">
-        <v>208498.5</v>
+        <v>0</v>
       </c>
       <c r="BU10" t="n">
-        <v>635583.8400000001</v>
+        <v>90679</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>35468</v>
       </c>
       <c r="BW10" t="n">
-        <v>62005.66</v>
+        <v>35817</v>
       </c>
       <c r="BX10" t="n">
         <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>1543421.58</v>
+        <v>959120</v>
       </c>
       <c r="BZ10" t="n">
         <v>0</v>
       </c>
       <c r="CA10" t="n">
-        <v>2241011.08</v>
+        <v>1121084</v>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1,169/6,486</t>
+          <t>5,127/672</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
         <is>
-          <t>94/1,503</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="CD10" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>39th DAA, Calaveras County Fair</t>
+          <t>40th DAA,    Yolo County Fair</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-52639</v>
+        <v>1518134</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1017282</v>
+        <v>1129063</v>
       </c>
       <c r="E11" t="n">
-        <v>964643</v>
+        <v>2647197</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -15305,19 +15325,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>161743</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>60253</v>
+        <v>97055</v>
       </c>
       <c r="K11" t="n">
-        <v>111722</v>
+        <v>374358</v>
       </c>
       <c r="L11" t="n">
-        <v>32671</v>
+        <v>15661</v>
       </c>
       <c r="M11" t="n">
-        <v>1573</v>
+        <v>390</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -15326,7 +15346,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>132764</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -15335,49 +15355,49 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>136067</v>
+        <v>91921</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>117545</v>
+        <v>535304</v>
       </c>
       <c r="V11" t="n">
-        <v>4183</v>
+        <v>2568</v>
       </c>
       <c r="W11" t="n">
-        <v>9553</v>
+        <v>11198</v>
       </c>
       <c r="X11" t="n">
-        <v>635310</v>
+        <v>1261219</v>
       </c>
       <c r="Y11" t="n">
-        <v>190894</v>
+        <v>324639</v>
       </c>
       <c r="Z11" t="n">
-        <v>154242</v>
+        <v>415294</v>
       </c>
       <c r="AA11" t="n">
-        <v>30917</v>
+        <v>4477</v>
       </c>
       <c r="AB11" t="n">
-        <v>52181</v>
+        <v>95650</v>
       </c>
       <c r="AC11" t="n">
-        <v>1712</v>
+        <v>15173</v>
       </c>
       <c r="AD11" t="n">
-        <v>1751</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>9965</v>
+        <v>22836</v>
       </c>
       <c r="AF11" t="n">
-        <v>22330</v>
+        <v>43790</v>
       </c>
       <c r="AG11" t="n">
-        <v>10808</v>
+        <v>389</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -15386,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>67467</v>
+        <v>71551</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
@@ -15395,55 +15415,55 @@
         <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>4506</v>
       </c>
       <c r="AN11" t="n">
-        <v>-2354</v>
+        <v>709</v>
       </c>
       <c r="AO11" t="n">
-        <v>-261</v>
+        <v>167</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>539652</v>
+        <v>999181</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>65363</v>
+        <v>81268</v>
       </c>
       <c r="AT11" t="n">
-        <v>95658</v>
+        <v>262038</v>
       </c>
       <c r="AU11" t="n">
-        <v>35817</v>
+        <v>1737787</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>959120</v>
+        <v>1090130</v>
       </c>
       <c r="AX11" t="n">
-        <v>994937</v>
+        <v>2827917</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.06637054990994196</v>
+        <v>1.739211414148187</v>
       </c>
       <c r="AZ11" t="n">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>118959</v>
+        <v>1910970.63</v>
       </c>
       <c r="BB11" t="n">
-        <v>36791</v>
+        <v>8000</v>
       </c>
       <c r="BC11" t="n">
-        <v>5947</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
         <v>0</v>
@@ -15452,105 +15472,105 @@
         <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>71698</v>
+        <v>174214</v>
       </c>
       <c r="BG11" t="n">
-        <v>3309299</v>
+        <v>3167441.84</v>
       </c>
       <c r="BH11" t="n">
-        <v>140843</v>
+        <v>528878.8199999999</v>
       </c>
       <c r="BI11" t="n">
         <v>0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-2562719</v>
+        <v>-2780404.11</v>
       </c>
       <c r="BK11" t="n">
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>1121084</v>
+        <v>3009101.18</v>
       </c>
       <c r="BM11" t="n">
         <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>63646</v>
+        <v>19016.46</v>
       </c>
       <c r="BO11" t="n">
-        <v>751</v>
+        <v>14794.12</v>
       </c>
       <c r="BP11" t="n">
-        <v>11669</v>
+        <v>104215</v>
       </c>
       <c r="BQ11" t="n">
         <v>0</v>
       </c>
       <c r="BR11" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="BS11" t="n">
-        <v>12613</v>
+        <v>31660.12</v>
       </c>
       <c r="BT11" t="n">
         <v>0</v>
       </c>
       <c r="BU11" t="n">
-        <v>90679</v>
+        <v>179685.7</v>
       </c>
       <c r="BV11" t="n">
-        <v>35468</v>
+        <v>1500</v>
       </c>
       <c r="BW11" t="n">
-        <v>35817</v>
+        <v>1737787</v>
       </c>
       <c r="BX11" t="n">
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>959120</v>
+        <v>1090130</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="CA11" t="n">
-        <v>1121084</v>
+        <v>3009100.7</v>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>5,127/672</t>
+          <t>1,022/14,711</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>61/20</t>
         </is>
       </c>
       <c r="CD11" t="n">
-        <v>33</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>40th DAA,    Yolo County Fair</t>
+          <t>Cloverdale Citrus Fair</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1518134</v>
+        <v>1595325</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1129063</v>
+        <v>375193</v>
       </c>
       <c r="E12" t="n">
-        <v>2647197</v>
+        <v>1970518</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -15559,19 +15579,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>68049</v>
       </c>
       <c r="J12" t="n">
-        <v>97055</v>
+        <v>10290</v>
       </c>
       <c r="K12" t="n">
-        <v>374358</v>
+        <v>44669</v>
       </c>
       <c r="L12" t="n">
-        <v>15661</v>
+        <v>7062</v>
       </c>
       <c r="M12" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -15580,58 +15600,58 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>132764</v>
+        <v>14096</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>619033</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>91921</v>
+        <v>25651</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>20420</v>
       </c>
       <c r="U12" t="n">
-        <v>535304</v>
+        <v>152382</v>
       </c>
       <c r="V12" t="n">
-        <v>2568</v>
+        <v>474</v>
       </c>
       <c r="W12" t="n">
-        <v>11198</v>
+        <v>9903</v>
       </c>
       <c r="X12" t="n">
-        <v>1261219</v>
+        <v>972029</v>
       </c>
       <c r="Y12" t="n">
-        <v>324639</v>
+        <v>191777</v>
       </c>
       <c r="Z12" t="n">
-        <v>415294</v>
+        <v>132376</v>
       </c>
       <c r="AA12" t="n">
-        <v>4477</v>
+        <v>29069</v>
       </c>
       <c r="AB12" t="n">
-        <v>95650</v>
+        <v>10351</v>
       </c>
       <c r="AC12" t="n">
-        <v>15173</v>
+        <v>3034</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>5430</v>
       </c>
       <c r="AE12" t="n">
-        <v>22836</v>
+        <v>18213</v>
       </c>
       <c r="AF12" t="n">
-        <v>43790</v>
+        <v>13935</v>
       </c>
       <c r="AG12" t="n">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>0</v>
@@ -15640,64 +15660,64 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>71551</v>
+        <v>33726</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>484903</v>
       </c>
       <c r="AL12" t="n">
         <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>4506</v>
+        <v>1881</v>
       </c>
       <c r="AN12" t="n">
-        <v>709</v>
+        <v>600</v>
       </c>
       <c r="AO12" t="n">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>999181</v>
+        <v>925415</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>81268</v>
+        <v>33323</v>
       </c>
       <c r="AT12" t="n">
-        <v>262038</v>
+        <v>196614</v>
       </c>
       <c r="AU12" t="n">
-        <v>1737787</v>
+        <v>1780096</v>
       </c>
       <c r="AV12" t="n">
         <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>1090130</v>
+        <v>353713</v>
       </c>
       <c r="AX12" t="n">
-        <v>2827917</v>
+        <v>2133809</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.739211414148187</v>
+        <v>1.923565103223959</v>
       </c>
       <c r="AZ12" t="n">
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>1910970.63</v>
+        <v>2118907.62</v>
       </c>
       <c r="BB12" t="n">
-        <v>8000</v>
+        <v>5730.55</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>140317.05</v>
       </c>
       <c r="BD12" t="n">
         <v>0</v>
@@ -15706,105 +15726,105 @@
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>174214</v>
+        <v>27233.35</v>
       </c>
       <c r="BG12" t="n">
-        <v>3167441.84</v>
+        <v>1070498.72</v>
       </c>
       <c r="BH12" t="n">
-        <v>528878.8199999999</v>
+        <v>181972.37</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>20793</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-2780404.11</v>
+        <v>-942730.96</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>3009101.18</v>
+        <v>2622721.7</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="BN12" t="n">
-        <v>19016.46</v>
+        <v>10116.98</v>
       </c>
       <c r="BO12" t="n">
-        <v>14794.12</v>
+        <v>2512.63</v>
       </c>
       <c r="BP12" t="n">
-        <v>104215</v>
+        <v>10673</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>453553.6</v>
       </c>
       <c r="BR12" t="n">
-        <v>10000</v>
+        <v>5100</v>
       </c>
       <c r="BS12" t="n">
-        <v>31660.12</v>
+        <v>2322.59</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>4053</v>
       </c>
       <c r="BU12" t="n">
-        <v>179685.7</v>
+        <v>488911.8</v>
       </c>
       <c r="BV12" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="BW12" t="n">
-        <v>1737787</v>
+        <v>1780096.42</v>
       </c>
       <c r="BX12" t="n">
         <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>1090130</v>
+        <v>353713.48</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="CA12" t="n">
-        <v>3009100.7</v>
+        <v>2622721.7</v>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1,022/14,711</t>
+          <t>384/131</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
         <is>
-          <t>61/20</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="CD12" t="n">
-        <v>130</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cloverdale Citrus Fair</t>
+          <t>Merced County Spring Fair</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1595325</v>
+        <v>84207</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>375193</v>
+        <v>748739</v>
       </c>
       <c r="E13" t="n">
-        <v>1970518</v>
+        <v>832946</v>
       </c>
       <c r="F13" t="n">
-        <v>150000</v>
+        <v>165000</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -15813,16 +15833,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>68049</v>
+        <v>221874</v>
       </c>
       <c r="J13" t="n">
-        <v>10290</v>
+        <v>37483</v>
       </c>
       <c r="K13" t="n">
-        <v>44669</v>
+        <v>218495</v>
       </c>
       <c r="L13" t="n">
-        <v>7062</v>
+        <v>33916</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -15834,55 +15854,55 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>14096</v>
+        <v>45042</v>
       </c>
       <c r="Q13" t="n">
-        <v>619033</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>25651</v>
+        <v>115695</v>
       </c>
       <c r="T13" t="n">
-        <v>20420</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>152382</v>
+        <v>195037</v>
       </c>
       <c r="V13" t="n">
-        <v>474</v>
+        <v>-3964</v>
       </c>
       <c r="W13" t="n">
-        <v>9903</v>
+        <v>2335</v>
       </c>
       <c r="X13" t="n">
-        <v>972029</v>
+        <v>865913</v>
       </c>
       <c r="Y13" t="n">
-        <v>191777</v>
+        <v>401201</v>
       </c>
       <c r="Z13" t="n">
-        <v>132376</v>
+        <v>276459</v>
       </c>
       <c r="AA13" t="n">
-        <v>29069</v>
+        <v>37314</v>
       </c>
       <c r="AB13" t="n">
-        <v>10351</v>
+        <v>60225</v>
       </c>
       <c r="AC13" t="n">
-        <v>3034</v>
+        <v>12831</v>
       </c>
       <c r="AD13" t="n">
-        <v>5430</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>18213</v>
+        <v>53076</v>
       </c>
       <c r="AF13" t="n">
-        <v>13935</v>
+        <v>84458</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -15894,171 +15914,171 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>33726</v>
+        <v>89633</v>
       </c>
       <c r="AK13" t="n">
-        <v>484903</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>1881</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="AO13" t="n">
-        <v>120</v>
+        <v>-21</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>925415</v>
+        <v>1015206</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>33323</v>
+        <v>17517</v>
       </c>
       <c r="AT13" t="n">
-        <v>196614</v>
+        <v>15707</v>
       </c>
       <c r="AU13" t="n">
-        <v>1780096</v>
+        <v>99913</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>353713</v>
+        <v>731222</v>
       </c>
       <c r="AX13" t="n">
-        <v>2133809</v>
+        <v>831135</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.923565103223959</v>
+        <v>0.09841647902002156</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>2118907.62</v>
+        <v>168593.93</v>
       </c>
       <c r="BB13" t="n">
-        <v>5730.55</v>
+        <v>75083.55</v>
       </c>
       <c r="BC13" t="n">
-        <v>140317.05</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
         <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>10269.47</v>
       </c>
       <c r="BF13" t="n">
-        <v>27233.35</v>
+        <v>448650</v>
       </c>
       <c r="BG13" t="n">
-        <v>1070498.72</v>
+        <v>2078033</v>
       </c>
       <c r="BH13" t="n">
-        <v>181972.37</v>
+        <v>206684.03</v>
       </c>
       <c r="BI13" t="n">
-        <v>20793</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-942730.96</v>
+        <v>-2012414.05</v>
       </c>
       <c r="BK13" t="n">
         <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>2622721.7</v>
+        <v>974899.9299999999</v>
       </c>
       <c r="BM13" t="n">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>10116.98</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>2512.63</v>
+        <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>10673</v>
+        <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>453553.6</v>
+        <v>0</v>
       </c>
       <c r="BR13" t="n">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>2322.59</v>
+        <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>4053</v>
+        <v>144000</v>
       </c>
       <c r="BU13" t="n">
-        <v>488911.8</v>
+        <v>144000</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>-235.8</v>
       </c>
       <c r="BW13" t="n">
-        <v>1780096.42</v>
+        <v>99913.28</v>
       </c>
       <c r="BX13" t="n">
         <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>353713.48</v>
+        <v>731222.45</v>
       </c>
       <c r="BZ13" t="n">
         <v>0</v>
       </c>
       <c r="CA13" t="n">
-        <v>2622721.7</v>
+        <v>974899.9299999999</v>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>384/131</t>
+          <t>4,850/6,356</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>936/309</t>
         </is>
       </c>
       <c r="CD13" t="n">
-        <v>8</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Merced County Spring Fair</t>
+          <t>Lodi Grape Festival &amp; Harvest Fair</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84207</v>
+        <v>365557</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>748739</v>
+        <v>1962636</v>
       </c>
       <c r="E14" t="n">
-        <v>832946</v>
+        <v>2328193</v>
       </c>
       <c r="F14" t="n">
-        <v>165000</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -16067,16 +16087,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>221874</v>
+        <v>218975</v>
       </c>
       <c r="J14" t="n">
-        <v>37483</v>
+        <v>61350</v>
       </c>
       <c r="K14" t="n">
-        <v>218495</v>
+        <v>241359</v>
       </c>
       <c r="L14" t="n">
-        <v>33916</v>
+        <v>1641</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -16088,7 +16108,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>45042</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -16097,46 +16117,46 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>115695</v>
+        <v>35875</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>87661</v>
       </c>
       <c r="U14" t="n">
-        <v>195037</v>
+        <v>196130</v>
       </c>
       <c r="V14" t="n">
-        <v>-3964</v>
+        <v>73</v>
       </c>
       <c r="W14" t="n">
-        <v>2335</v>
+        <v>94901</v>
       </c>
       <c r="X14" t="n">
-        <v>865913</v>
+        <v>937965</v>
       </c>
       <c r="Y14" t="n">
-        <v>401201</v>
+        <v>427264</v>
       </c>
       <c r="Z14" t="n">
-        <v>276459</v>
+        <v>226236</v>
       </c>
       <c r="AA14" t="n">
-        <v>37314</v>
+        <v>60524</v>
       </c>
       <c r="AB14" t="n">
-        <v>60225</v>
+        <v>91759</v>
       </c>
       <c r="AC14" t="n">
-        <v>12831</v>
+        <v>14117</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>39890</v>
       </c>
       <c r="AE14" t="n">
-        <v>53076</v>
+        <v>35805</v>
       </c>
       <c r="AF14" t="n">
-        <v>84458</v>
+        <v>28372</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -16148,7 +16168,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>89633</v>
+        <v>88939</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
@@ -16157,97 +16177,97 @@
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="AN14" t="n">
-        <v>30</v>
+        <v>9413</v>
       </c>
       <c r="AO14" t="n">
-        <v>-21</v>
+        <v>96</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1015206</v>
+        <v>1023047</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>17517</v>
+        <v>113367</v>
       </c>
       <c r="AT14" t="n">
-        <v>15707</v>
+        <v>-85082</v>
       </c>
       <c r="AU14" t="n">
-        <v>99913</v>
+        <v>255200</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>731222</v>
+        <v>1874543</v>
       </c>
       <c r="AX14" t="n">
-        <v>831135</v>
+        <v>2129743</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.09841647902002156</v>
+        <v>0.2494509049926348</v>
       </c>
       <c r="AZ14" t="n">
         <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>168593.93</v>
+        <v>319185.01</v>
       </c>
       <c r="BB14" t="n">
-        <v>75083.55</v>
+        <v>0</v>
       </c>
       <c r="BC14" t="n">
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>16602.12</v>
       </c>
       <c r="BE14" t="n">
-        <v>10269.47</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>448650</v>
+        <v>88340.41</v>
       </c>
       <c r="BG14" t="n">
-        <v>2078033</v>
+        <v>3913849.5</v>
       </c>
       <c r="BH14" t="n">
-        <v>206684.03</v>
+        <v>343030.81</v>
       </c>
       <c r="BI14" t="n">
         <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-2012414.05</v>
+        <v>-2423177.99</v>
       </c>
       <c r="BK14" t="n">
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>974899.9299999999</v>
+        <v>2257829.859999999</v>
       </c>
       <c r="BM14" t="n">
         <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>26310.91</v>
       </c>
       <c r="BO14" t="n">
-        <v>0</v>
+        <v>153.25</v>
       </c>
       <c r="BP14" t="n">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>24118.04</v>
       </c>
       <c r="BR14" t="n">
         <v>0</v>
@@ -16256,294 +16276,40 @@
         <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>144000</v>
+        <v>47500</v>
       </c>
       <c r="BU14" t="n">
-        <v>144000</v>
+        <v>128087.2</v>
       </c>
       <c r="BV14" t="n">
-        <v>-235.8</v>
+        <v>0</v>
       </c>
       <c r="BW14" t="n">
-        <v>99913.28</v>
+        <v>255198.93</v>
       </c>
       <c r="BX14" t="n">
         <v>0</v>
       </c>
       <c r="BY14" t="n">
-        <v>731222.45</v>
+        <v>1874542.73</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA14" t="n">
-        <v>974899.9299999999</v>
+        <v>2257829.86</v>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>4,850/6,356</t>
+          <t>2,155/0</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
         <is>
-          <t>936/309</t>
+          <t>50/32</t>
         </is>
       </c>
       <c r="CD14" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Lodi Grape Festival &amp; Harvest Fair</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>365557</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1962636</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2328193</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>218975</v>
-      </c>
-      <c r="J15" t="n">
-        <v>61350</v>
-      </c>
-      <c r="K15" t="n">
-        <v>241359</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1641</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>35875</v>
-      </c>
-      <c r="T15" t="n">
-        <v>87661</v>
-      </c>
-      <c r="U15" t="n">
-        <v>196130</v>
-      </c>
-      <c r="V15" t="n">
-        <v>73</v>
-      </c>
-      <c r="W15" t="n">
-        <v>94901</v>
-      </c>
-      <c r="X15" t="n">
-        <v>937965</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>427264</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>226236</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>60524</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>91759</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>14117</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>39890</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>35805</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>28372</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>88939</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>632</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>9413</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>96</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>1023047</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>113367</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>-85082</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>255200</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>1874543</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>2129743</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0.2494509049926348</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>319185.01</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>16602.12</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>88340.41</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>3913849.5</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>343030.81</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>-2423177.99</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>2257829.859999999</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>26310.91</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>153.25</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>30005</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>24118.04</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>47500</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>128087.2</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>255198.93</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>1874542.73</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>2257829.86</v>
-      </c>
-      <c r="CB15" t="inlineStr">
-        <is>
-          <t>2,155/0</t>
-        </is>
-      </c>
-      <c r="CC15" t="inlineStr">
-        <is>
-          <t>50/32</t>
-        </is>
-      </c>
-      <c r="CD15" t="n">
         <v>84</v>
       </c>
     </row>
@@ -23755,7 +23521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD15"/>
+  <dimension ref="A1:CD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27481,50 +27247,6 @@
       </c>
       <c r="CD14" t="n">
         <v>129</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Placer County Fair     </t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB15" t="inlineStr">
-        <is>
-          <t>4,557/3</t>
-        </is>
-      </c>
-      <c r="CC15" t="inlineStr">
-        <is>
-          <t>234/62</t>
-        </is>
-      </c>
-      <c r="CD15" t="n">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -29471,7 +29193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2106"/>
+  <dimension ref="A1:N2106"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C68" sqref="C68:L68"/>
@@ -36473,7 +36195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C69" sqref="C69:I69"/>
@@ -39789,106 +39511,7 @@
         </is>
       </c>
     </row>
-    <row r="100"/>
     <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="F2:F3"/>
@@ -39939,7 +39562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q199"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C75" sqref="C75:P75"/>
@@ -44537,101 +44160,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105"/>
     <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="G2:G3"/>
@@ -44688,7 +44217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q199"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C74" sqref="C74:O74"/>
@@ -49279,102 +48808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104"/>
     <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="G2:G3"/>
@@ -49434,7 +48868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K199"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView topLeftCell="A64" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C72" sqref="C72:J72"/>
@@ -52451,104 +51885,6 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="J2:J3"/>
@@ -52596,7 +51932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C74" sqref="C74:H74"/>
@@ -55056,7 +54392,6 @@
         <v>566</v>
       </c>
     </row>
-    <row r="104"/>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="382" t="inlineStr">
         <is>
@@ -55065,99 +54400,6 @@
       </c>
     </row>
     <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A1:B3"/>
@@ -55203,7 +54445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView topLeftCell="A47" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C69" sqref="C69:E69"/>
@@ -57039,107 +56281,6 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A57:B58"/>
@@ -57178,7 +56319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
@@ -59346,104 +58487,6 @@
     <row r="101">
       <c r="A101" s="169" t="n"/>
     </row>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="G2:G3"/>
